--- a/Case1_elektrisch.xlsx
+++ b/Case1_elektrisch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE7BB8B-DA70-8241-8223-0298F78F80AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF1F5B1-414C-8042-9510-D0B9EE53A36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="460" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>EM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main reducer ration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_main_reducer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +896,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1035,7 +1043,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -1527,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Case1_elektrisch.xlsx
+++ b/Case1_elektrisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF1F5B1-414C-8042-9510-D0B9EE53A36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1304A90-9ACB-4ED3-BF85-3AAB52B33C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="27320" windowHeight="19440" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="1365" yWindow="10965" windowWidth="15465" windowHeight="22665" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,14 +386,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,7 +402,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,7 +410,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -419,7 +419,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,7 +427,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,11 +577,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
-    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,16 +896,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1082,10 +1082,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1209,13 +1209,13 @@
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1285,12 +1285,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1392,11 +1392,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1506,12 +1506,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Case1_elektrisch.xlsx
+++ b/Case1_elektrisch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1304A90-9ACB-4ED3-BF85-3AAB52B33C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EA28D-53AB-4607-9EFD-720E174129AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="10965" windowWidth="15465" windowHeight="22665" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="RB" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1503,7 +1504,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
